--- a/code/code/src/main/resources/static/excel/template.xlsx
+++ b/code/code/src/main/resources/static/excel/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="8265"/>
+    <workbookView windowWidth="21600" windowHeight="9840" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="注意事项" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="505">
   <si>
     <t>注意事项：</t>
   </si>
@@ -1496,7 +1496,10 @@
     <t>任职年龄</t>
   </si>
   <si>
-    <t>所在单位</t>
+    <t>单位名称</t>
+  </si>
+  <si>
+    <t>当时所在单位</t>
   </si>
   <si>
     <t>从事工作和职务</t>
@@ -1543,9 +1546,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1569,11 +1572,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1585,29 +1587,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1621,31 +1601,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1659,6 +1617,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1667,9 +1632,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1684,9 +1656,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1695,6 +1675,22 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1707,7 +1703,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1722,13 +1725,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1740,7 +1791,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1752,43 +1869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1800,37 +1881,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1848,61 +1905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1913,41 +1916,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1966,11 +1934,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1993,8 +1967,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2013,6 +1996,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2021,10 +2024,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2033,133 +2036,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2536,7 +2539,7 @@
   </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -13474,22 +13477,22 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="4" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:8">
+    <row r="1" ht="20" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -13512,18 +13515,21 @@
         <v>492</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D2" s="1">
         <v>11</v>
@@ -13532,13 +13538,16 @@
         <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>495</v>
+        <v>376</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>496</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>497</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -13574,19 +13583,19 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -13620,7 +13629,7 @@
         <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>112</v>
